--- a/Desafios Excel/Dashboard Xbox vendas/dashboard_xbox.xlsx
+++ b/Desafios Excel/Dashboard Xbox vendas/dashboard_xbox.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Curso Excel com IA DIO\Desafios de Projeto\Dashboard de Vendas do Xbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\dio\Desafios de projeto\desafios-de-projeto-DIO\Desafios Excel\Dashboard Xbox vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05314584-1A00-4642-BC35-D8427CC0A95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CE15D-3F9E-4EB9-8710-B016646BC480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="875" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
-    <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="C̳álculos" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
+    <sheet name="B̳ases" sheetId="2" r:id="rId2"/>
+    <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -1118,8 +1118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1250,13 +1251,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1292,11 +1294,14 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="16">
@@ -1669,7 +1674,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[dashboard_xbox_finalizado.xlsx]C̳álculos!tbl_annual_total</c:name>
+    <c:name>[dashboard_xbox.xlsx]C̳álculos!tbl_annual_total</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -3098,7 +3103,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1118235" y="5227319"/>
+          <a:off x="1118235" y="5013959"/>
           <a:ext cx="1732356" cy="691516"/>
           <a:chOff x="3495675" y="5400674"/>
           <a:chExt cx="1549476" cy="752476"/>
@@ -3442,7 +3447,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1782536</xdr:colOff>
+      <xdr:colOff>1927860</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>134711</xdr:rowOff>
     </xdr:to>
@@ -3513,16 +3518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>269538</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>428626</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>126207</xdr:rowOff>
+      <xdr:rowOff>68582</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3537,10 +3542,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2386012" y="1151573"/>
-          <a:ext cx="5098733" cy="1641634"/>
-          <a:chOff x="2095500" y="1143000"/>
-          <a:chExt cx="4655344" cy="1647825"/>
+          <a:off x="2357418" y="1151573"/>
+          <a:ext cx="5127328" cy="1492569"/>
+          <a:chOff x="2069392" y="1143000"/>
+          <a:chExt cx="4681452" cy="1586570"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3564,9 +3569,7 @@
               <a:gd name="adj" fmla="val 4069"/>
             </a:avLst>
           </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:noFill/>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -3588,11 +3591,18 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="pt-BR" sz="1100" kern="1200"/>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:endParaRPr lang="pt-BR" sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="22C55E"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3609,8 +3619,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3212308" y="1709738"/>
-            <a:ext cx="3026569" cy="942975"/>
+            <a:off x="2864439" y="1725938"/>
+            <a:ext cx="2681042" cy="874032"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -3688,8 +3698,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2250282" y="1571625"/>
-            <a:ext cx="1219200" cy="1219200"/>
+            <a:off x="2069392" y="1604025"/>
+            <a:ext cx="1125544" cy="1125545"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3783,7 +3793,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8561546" y="1151573"/>
-          <a:ext cx="5161121" cy="1565434"/>
+          <a:ext cx="5161121" cy="1473994"/>
           <a:chOff x="7534275" y="1247775"/>
           <a:chExt cx="4655344" cy="1571625"/>
         </a:xfrm>
@@ -3873,7 +3883,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3212308" y="1709738"/>
+              <a:off x="2751800" y="1677240"/>
               <a:ext cx="3026569" cy="942975"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -4010,10 +4020,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="7703345" y="1952626"/>
-            <a:ext cx="1083467" cy="583406"/>
-            <a:chOff x="3495675" y="5400674"/>
-            <a:chExt cx="1549476" cy="752476"/>
+            <a:off x="7565880" y="1903877"/>
+            <a:ext cx="1083467" cy="615904"/>
+            <a:chOff x="3299085" y="5337799"/>
+            <a:chExt cx="1549476" cy="794392"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -4043,8 +4053,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3998608" y="5400674"/>
-              <a:ext cx="555497" cy="609599"/>
+              <a:off x="3723381" y="5337799"/>
+              <a:ext cx="555497" cy="609600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4078,7 +4088,7 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3495675" y="5895937"/>
+              <a:off x="3299085" y="5874978"/>
               <a:ext cx="1549476" cy="257213"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4116,7 +4126,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2374106" y="3131344"/>
+          <a:off x="2374106" y="3009424"/>
           <a:ext cx="11374755" cy="3038951"/>
           <a:chOff x="2083594" y="3178969"/>
           <a:chExt cx="10298906" cy="3298031"/>
@@ -4418,7 +4428,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" b="1" kern="1200"/>
-            <a:t>&gt; bem vinda, Liana</a:t>
+            <a:t>&gt; Bem vinda, Liana</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4493,6 +4503,176 @@
             </a:rPr>
             <a:t>Calculation period: 01/01/2024 - 31/12/2024 | Update date: 25/12/2024 09:00:00</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>625792</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>122873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587821</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="C̳álculos!B39">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Retângulo: Cantos Arredondados 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCACB8C-8B7F-4C08-8F9D-369DDB568CF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4999672" y="1646873"/>
+          <a:ext cx="3314829" cy="887105"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4069"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{FA9226F3-DE76-450E-8186-6CA555A6C36D}" type="TxLink">
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="22C55E"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>33,1%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="22C55E"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>385286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>387875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="C̳álculos!B40">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Retângulo: Cantos Arredondados 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5627D7E7-4ED2-4E0D-A4DF-08CD7FBD30EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11297126" y="1654493"/>
+          <a:ext cx="3355389" cy="884396"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4069"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:fld id="{8E251F99-44CF-4317-99E5-F96684B10CB4}" type="TxLink">
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="22C55E"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:pPr marL="0" indent="0" algn="ctr"/>
+            <a:t>65,5%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="pt-BR" sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200">
+            <a:solidFill>
+              <a:srgbClr val="22C55E"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9281,372 +9461,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E17BE4-EBDD-4E6C-AABB-48C907DB6551}" name="Tabela dinâmica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="B32:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="281">
-        <item x="87"/>
-        <item x="61"/>
-        <item x="206"/>
-        <item x="275"/>
-        <item x="112"/>
-        <item x="228"/>
-        <item x="35"/>
-        <item x="253"/>
-        <item x="136"/>
-        <item x="3"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="7"/>
-        <item x="88"/>
-        <item x="16"/>
-        <item x="186"/>
-        <item x="162"/>
-        <item x="276"/>
-        <item x="36"/>
-        <item x="254"/>
-        <item x="207"/>
-        <item x="137"/>
-        <item x="62"/>
-        <item x="9"/>
-        <item x="113"/>
-        <item x="229"/>
-        <item x="163"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="63"/>
-        <item x="37"/>
-        <item x="230"/>
-        <item x="255"/>
-        <item x="277"/>
-        <item x="138"/>
-        <item x="89"/>
-        <item x="114"/>
-        <item x="17"/>
-        <item x="187"/>
-        <item x="90"/>
-        <item x="139"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="64"/>
-        <item x="231"/>
-        <item x="208"/>
-        <item x="256"/>
-        <item x="278"/>
-        <item x="13"/>
-        <item x="115"/>
-        <item x="164"/>
-        <item x="91"/>
-        <item x="188"/>
-        <item x="19"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="257"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="65"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="210"/>
-        <item x="141"/>
-        <item x="232"/>
-        <item x="258"/>
-        <item x="40"/>
-        <item x="66"/>
-        <item x="117"/>
-        <item x="5"/>
-        <item x="165"/>
-        <item x="14"/>
-        <item x="67"/>
-        <item x="211"/>
-        <item x="189"/>
-        <item x="259"/>
-        <item x="20"/>
-        <item x="93"/>
-        <item x="233"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="94"/>
-        <item x="212"/>
-        <item x="167"/>
-        <item x="68"/>
-        <item x="42"/>
-        <item x="234"/>
-        <item x="118"/>
-        <item x="21"/>
-        <item x="260"/>
-        <item x="144"/>
-        <item x="190"/>
-        <item x="213"/>
-        <item x="168"/>
-        <item x="43"/>
-        <item x="235"/>
-        <item x="119"/>
-        <item x="95"/>
-        <item x="22"/>
-        <item x="69"/>
-        <item x="145"/>
-        <item x="191"/>
-        <item x="169"/>
-        <item x="120"/>
-        <item x="261"/>
-        <item x="96"/>
-        <item x="236"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="44"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="97"/>
-        <item x="170"/>
-        <item x="262"/>
-        <item x="237"/>
-        <item x="146"/>
-        <item x="45"/>
-        <item x="24"/>
-        <item x="121"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="72"/>
-        <item x="263"/>
-        <item x="171"/>
-        <item x="238"/>
-        <item x="46"/>
-        <item x="98"/>
-        <item x="214"/>
-        <item x="147"/>
-        <item x="193"/>
-        <item x="264"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="47"/>
-        <item x="122"/>
-        <item x="11"/>
-        <item x="239"/>
-        <item x="148"/>
-        <item x="215"/>
-        <item x="1"/>
-        <item x="25"/>
-        <item x="73"/>
-        <item x="123"/>
-        <item x="216"/>
-        <item x="265"/>
-        <item x="149"/>
-        <item x="240"/>
-        <item x="194"/>
-        <item x="26"/>
-        <item x="48"/>
-        <item x="173"/>
-        <item x="100"/>
-        <item x="74"/>
-        <item x="195"/>
-        <item x="174"/>
-        <item x="124"/>
-        <item x="241"/>
-        <item x="266"/>
-        <item x="49"/>
-        <item x="101"/>
-        <item x="150"/>
-        <item x="217"/>
-        <item x="75"/>
-        <item x="27"/>
-        <item x="151"/>
-        <item x="102"/>
-        <item x="218"/>
-        <item x="242"/>
-        <item x="267"/>
-        <item x="125"/>
-        <item x="50"/>
-        <item x="28"/>
-        <item x="76"/>
-        <item x="196"/>
-        <item x="175"/>
-        <item x="4"/>
-        <item x="126"/>
-        <item x="219"/>
-        <item x="268"/>
-        <item x="77"/>
-        <item x="51"/>
-        <item x="152"/>
-        <item x="243"/>
-        <item x="127"/>
-        <item x="103"/>
-        <item x="244"/>
-        <item x="29"/>
-        <item x="197"/>
-        <item x="176"/>
-        <item x="78"/>
-        <item x="269"/>
-        <item x="52"/>
-        <item x="153"/>
-        <item x="10"/>
-        <item x="79"/>
-        <item x="104"/>
-        <item x="30"/>
-        <item x="177"/>
-        <item x="220"/>
-        <item x="245"/>
-        <item x="270"/>
-        <item x="128"/>
-        <item x="8"/>
-        <item x="154"/>
-        <item x="198"/>
-        <item x="53"/>
-        <item x="31"/>
-        <item x="271"/>
-        <item x="246"/>
-        <item x="105"/>
-        <item x="178"/>
-        <item x="221"/>
-        <item x="80"/>
-        <item x="129"/>
-        <item x="155"/>
-        <item x="54"/>
-        <item x="199"/>
-        <item x="247"/>
-        <item x="55"/>
-        <item x="106"/>
-        <item x="179"/>
-        <item x="81"/>
-        <item x="156"/>
-        <item x="222"/>
-        <item x="200"/>
-        <item x="130"/>
-        <item x="248"/>
-        <item x="56"/>
-        <item x="223"/>
-        <item x="157"/>
-        <item x="131"/>
-        <item x="180"/>
-        <item x="201"/>
-        <item x="82"/>
-        <item x="107"/>
-        <item x="32"/>
-        <item x="158"/>
-        <item x="132"/>
-        <item x="202"/>
-        <item x="83"/>
-        <item x="181"/>
-        <item x="224"/>
-        <item x="249"/>
-        <item x="57"/>
-        <item x="108"/>
-        <item x="203"/>
-        <item x="133"/>
-        <item x="225"/>
-        <item x="109"/>
-        <item x="272"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="250"/>
-        <item x="58"/>
-        <item x="110"/>
-        <item x="59"/>
-        <item x="183"/>
-        <item x="226"/>
-        <item x="85"/>
-        <item x="273"/>
-        <item x="159"/>
-        <item x="33"/>
-        <item x="204"/>
-        <item x="251"/>
-        <item x="134"/>
-        <item x="205"/>
-        <item x="60"/>
-        <item x="184"/>
-        <item x="160"/>
-        <item x="274"/>
-        <item x="227"/>
-        <item x="135"/>
-        <item x="86"/>
-        <item x="34"/>
-        <item x="252"/>
-        <item x="111"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84005490-F2B6-45E1-A8C2-E59BAE3E3FBC}" name="tbl_easeasonpass_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B21:C25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -10012,7 +9826,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E786295-8353-4BE2-9C12-200F15B8EF15}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="B11:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -10361,6 +10175,372 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22E17BE4-EBDD-4E6C-AABB-48C907DB6551}" name="Tabela dinâmica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="B32:C36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="281">
+        <item x="87"/>
+        <item x="61"/>
+        <item x="206"/>
+        <item x="275"/>
+        <item x="112"/>
+        <item x="228"/>
+        <item x="35"/>
+        <item x="253"/>
+        <item x="136"/>
+        <item x="3"/>
+        <item x="161"/>
+        <item x="185"/>
+        <item x="7"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="186"/>
+        <item x="162"/>
+        <item x="276"/>
+        <item x="36"/>
+        <item x="254"/>
+        <item x="207"/>
+        <item x="137"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="113"/>
+        <item x="229"/>
+        <item x="163"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="63"/>
+        <item x="37"/>
+        <item x="230"/>
+        <item x="255"/>
+        <item x="277"/>
+        <item x="138"/>
+        <item x="89"/>
+        <item x="114"/>
+        <item x="17"/>
+        <item x="187"/>
+        <item x="90"/>
+        <item x="139"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="64"/>
+        <item x="231"/>
+        <item x="208"/>
+        <item x="256"/>
+        <item x="278"/>
+        <item x="13"/>
+        <item x="115"/>
+        <item x="164"/>
+        <item x="91"/>
+        <item x="188"/>
+        <item x="19"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="257"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="65"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="210"/>
+        <item x="141"/>
+        <item x="232"/>
+        <item x="258"/>
+        <item x="40"/>
+        <item x="66"/>
+        <item x="117"/>
+        <item x="5"/>
+        <item x="165"/>
+        <item x="14"/>
+        <item x="67"/>
+        <item x="211"/>
+        <item x="189"/>
+        <item x="259"/>
+        <item x="20"/>
+        <item x="93"/>
+        <item x="233"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="94"/>
+        <item x="212"/>
+        <item x="167"/>
+        <item x="68"/>
+        <item x="42"/>
+        <item x="234"/>
+        <item x="118"/>
+        <item x="21"/>
+        <item x="260"/>
+        <item x="144"/>
+        <item x="190"/>
+        <item x="213"/>
+        <item x="168"/>
+        <item x="43"/>
+        <item x="235"/>
+        <item x="119"/>
+        <item x="95"/>
+        <item x="22"/>
+        <item x="69"/>
+        <item x="145"/>
+        <item x="191"/>
+        <item x="169"/>
+        <item x="120"/>
+        <item x="261"/>
+        <item x="96"/>
+        <item x="236"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="97"/>
+        <item x="170"/>
+        <item x="262"/>
+        <item x="237"/>
+        <item x="146"/>
+        <item x="45"/>
+        <item x="24"/>
+        <item x="121"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="72"/>
+        <item x="263"/>
+        <item x="171"/>
+        <item x="238"/>
+        <item x="46"/>
+        <item x="98"/>
+        <item x="214"/>
+        <item x="147"/>
+        <item x="193"/>
+        <item x="264"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="47"/>
+        <item x="122"/>
+        <item x="11"/>
+        <item x="239"/>
+        <item x="148"/>
+        <item x="215"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="73"/>
+        <item x="123"/>
+        <item x="216"/>
+        <item x="265"/>
+        <item x="149"/>
+        <item x="240"/>
+        <item x="194"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="173"/>
+        <item x="100"/>
+        <item x="74"/>
+        <item x="195"/>
+        <item x="174"/>
+        <item x="124"/>
+        <item x="241"/>
+        <item x="266"/>
+        <item x="49"/>
+        <item x="101"/>
+        <item x="150"/>
+        <item x="217"/>
+        <item x="75"/>
+        <item x="27"/>
+        <item x="151"/>
+        <item x="102"/>
+        <item x="218"/>
+        <item x="242"/>
+        <item x="267"/>
+        <item x="125"/>
+        <item x="50"/>
+        <item x="28"/>
+        <item x="76"/>
+        <item x="196"/>
+        <item x="175"/>
+        <item x="4"/>
+        <item x="126"/>
+        <item x="219"/>
+        <item x="268"/>
+        <item x="77"/>
+        <item x="51"/>
+        <item x="152"/>
+        <item x="243"/>
+        <item x="127"/>
+        <item x="103"/>
+        <item x="244"/>
+        <item x="29"/>
+        <item x="197"/>
+        <item x="176"/>
+        <item x="78"/>
+        <item x="269"/>
+        <item x="52"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="79"/>
+        <item x="104"/>
+        <item x="30"/>
+        <item x="177"/>
+        <item x="220"/>
+        <item x="245"/>
+        <item x="270"/>
+        <item x="128"/>
+        <item x="8"/>
+        <item x="154"/>
+        <item x="198"/>
+        <item x="53"/>
+        <item x="31"/>
+        <item x="271"/>
+        <item x="246"/>
+        <item x="105"/>
+        <item x="178"/>
+        <item x="221"/>
+        <item x="80"/>
+        <item x="129"/>
+        <item x="155"/>
+        <item x="54"/>
+        <item x="199"/>
+        <item x="247"/>
+        <item x="55"/>
+        <item x="106"/>
+        <item x="179"/>
+        <item x="81"/>
+        <item x="156"/>
+        <item x="222"/>
+        <item x="200"/>
+        <item x="130"/>
+        <item x="248"/>
+        <item x="56"/>
+        <item x="223"/>
+        <item x="157"/>
+        <item x="131"/>
+        <item x="180"/>
+        <item x="201"/>
+        <item x="82"/>
+        <item x="107"/>
+        <item x="32"/>
+        <item x="158"/>
+        <item x="132"/>
+        <item x="202"/>
+        <item x="83"/>
+        <item x="181"/>
+        <item x="224"/>
+        <item x="249"/>
+        <item x="57"/>
+        <item x="108"/>
+        <item x="203"/>
+        <item x="133"/>
+        <item x="225"/>
+        <item x="109"/>
+        <item x="272"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="250"/>
+        <item x="58"/>
+        <item x="110"/>
+        <item x="59"/>
+        <item x="183"/>
+        <item x="226"/>
+        <item x="85"/>
+        <item x="273"/>
+        <item x="159"/>
+        <item x="33"/>
+        <item x="204"/>
+        <item x="251"/>
+        <item x="134"/>
+        <item x="205"/>
+        <item x="60"/>
+        <item x="184"/>
+        <item x="160"/>
+        <item x="274"/>
+        <item x="227"/>
+        <item x="135"/>
+        <item x="86"/>
+        <item x="34"/>
+        <item x="252"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -10737,7 +10917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F18745-D22C-475B-A007-B964F001EBFB}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
   <dimension ref="B3:P21"/>
@@ -10751,7 +10931,7 @@
     <col min="9" max="9" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="20.25" thickBot="1">
+    <row r="3" spans="2:16" ht="19.8" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -10762,8 +10942,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickTop="1"/>
-    <row r="5" spans="2:16" ht="15">
+    <row r="4" spans="2:16" ht="14.4" thickTop="1"/>
+    <row r="5" spans="2:16">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -10777,7 +10957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15">
+    <row r="6" spans="2:16">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -10785,7 +10965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15">
+    <row r="7" spans="2:16">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -10793,7 +10973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15">
+    <row r="8" spans="2:16">
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -10821,7 +11001,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" ht="15.75" thickTop="1">
+    <row r="13" spans="2:16" ht="14.4" thickTop="1">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -10830,7 +11010,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:16" ht="15">
+    <row r="14" spans="2:16">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10839,7 +11019,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:16" ht="15">
+    <row r="15" spans="2:16">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -10848,7 +11028,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:16" ht="15">
+    <row r="16" spans="2:16">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -10857,7 +11037,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="2:8" ht="15">
+    <row r="17" spans="2:8">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -10866,7 +11046,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="2:8" ht="15">
+    <row r="18" spans="2:8">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -10875,7 +11055,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="2:8" ht="15">
+    <row r="19" spans="2:8">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -10884,7 +11064,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="2:8" ht="15">
+    <row r="20" spans="2:8">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -10893,7 +11073,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="2:8" ht="15">
+    <row r="21" spans="2:8">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -10910,13 +11090,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56040718-600F-40D2-9E7A-13AED8C24C13}">
-  <sheetPr>
+  <sheetPr codeName="Planilha2">
     <tabColor theme="3" tint="0.749992370372631"/>
   </sheetPr>
   <dimension ref="A1:M296"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="C33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10936,7 +11116,7 @@
     <col min="13" max="13" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="27.6">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -23083,10 +23263,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF79518-957B-4D6A-A3ED-CC74AA9E1C81}">
-  <dimension ref="B3:F36"/>
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="B3:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -23279,6 +23460,18 @@
         <v>940</v>
       </c>
     </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="22">
+        <f>COUNTIF(B̳ases!H:H,"Yes") / COUNTA(B̳ases!G:G)</f>
+        <v>0.33108108108108109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="22">
+        <f>COUNTIF(B̳ases!J:J,"Yes") / COUNTA(B̳ases!I:I)</f>
+        <v>0.65540540540540537</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:F3"/>
@@ -23290,10 +23483,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
+  <sheetPr codeName="Planilha4"/>
   <dimension ref="A2:S136"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -23340,31 +23534,32 @@
     <row r="8" spans="1:19" s="7" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" ht="15">
+    <row r="9" spans="1:19" s="7" customFormat="1">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:19" s="7" customFormat="1" ht="15">
+    <row r="10" spans="1:19" s="7" customFormat="1">
       <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:19" s="7" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" s="7" customFormat="1" ht="15">
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:19" s="7" customFormat="1" ht="15">
+    <row r="13" spans="1:19" s="7" customFormat="1">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:19" s="7" customFormat="1" ht="15">
+    <row r="14" spans="1:19" s="7" customFormat="1">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:19" s="7" customFormat="1" ht="15">
+    <row r="15" spans="1:19" s="7" customFormat="1">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:19" s="7" customFormat="1" ht="15">
+    <row r="16" spans="1:19" s="7" customFormat="1">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" s="7" customFormat="1" ht="15">
+    <row r="17" spans="1:1" s="7" customFormat="1">
       <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" s="7" customFormat="1">
@@ -23725,7 +23920,6 @@
       <c r="A136" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -23748,6 +23942,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -24002,17 +24207,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B26109AA-4A63-4ABA-9238-1315B3F7EEAB}">
   <ds:schemaRefs>
@@ -24022,6 +24216,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499037E4-A6E4-45D3-B93A-3D2B6A0C2B33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6A6278B-0476-46CE-815A-3F41F4371156}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24038,15 +24243,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{499037E4-A6E4-45D3-B93A-3D2B6A0C2B33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Desafios Excel/Dashboard Xbox vendas/dashboard_xbox.xlsx
+++ b/Desafios Excel/Dashboard Xbox vendas/dashboard_xbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\dio\Desafios de projeto\desafios-de-projeto-DIO\Desafios Excel\Dashboard Xbox vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CE15D-3F9E-4EB9-8710-B016646BC480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191F5CF5-FC27-481B-9440-56D9559AB09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="875" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
